--- a/HSR_Stats_1.2.xlsx
+++ b/HSR_Stats_1.2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6C79B-B8FC-4841-9F65-3702C8C63A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B697B40-7352-4501-97C3-AE6B3991244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="76">
   <si>
     <t>Head</t>
   </si>
@@ -214,15 +214,6 @@
   </si>
   <si>
     <t>ATK_</t>
-  </si>
-  <si>
-    <t>HP _</t>
-  </si>
-  <si>
-    <t>ATK _</t>
-  </si>
-  <si>
-    <t>DEF _</t>
   </si>
   <si>
     <t>BE</t>
@@ -862,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -909,55 +900,61 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -971,33 +968,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -1339,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,60 +1338,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF1" s="101" t="str">
+      <c r="AF1" s="76" t="str">
         <f>C3</f>
         <v>HP_</v>
       </c>
-      <c r="AG1" s="101">
+      <c r="AG1" s="76">
         <f>E3</f>
         <v>705.6</v>
       </c>
     </row>
     <row r="2" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="G2" s="88" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="G2" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="M2" s="99" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="M2" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="100"/>
-      <c r="P2" s="99" t="s">
+      <c r="N2" s="89"/>
+      <c r="P2" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="100"/>
-      <c r="T2" s="66" t="s">
+      <c r="Q2" s="89"/>
+      <c r="T2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="102" t="s">
+      <c r="V2" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="68" t="s">
+      <c r="X2" s="60" t="s">
         <v>18</v>
       </c>
       <c r="Y2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="101" t="str">
+      <c r="AF2" s="76" t="str">
         <f>C4</f>
         <v>SPD</v>
       </c>
-      <c r="AG2" s="101">
+      <c r="AG2" s="76">
         <f>E4</f>
         <v>4.5999999999999996</v>
       </c>
@@ -1419,7 +1400,7 @@
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59" t="str">
+      <c r="C3" s="55" t="str">
         <f>T18</f>
         <v>HP_</v>
       </c>
@@ -1435,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>29</v>
@@ -1443,43 +1424,43 @@
       <c r="K3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="83">
+      <c r="U3" s="70">
         <f t="shared" ref="U3:U14" si="0">IF(V3=$W$2,W3,IF(V3=$X$2,X3,IF(V3=$Y$2,Y3)))</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="V3" s="61" t="str">
+      <c r="V3" s="56" t="str">
         <f t="shared" ref="V3:V14" si="1">$X$2</f>
         <v>Med</v>
       </c>
       <c r="W3" s="4">
         <v>2</v>
       </c>
-      <c r="X3" s="83">
+      <c r="X3" s="70">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Y3" s="84">
+      <c r="Y3" s="71">
         <v>2.6</v>
       </c>
-      <c r="AF3" s="101" t="str">
+      <c r="AF3" s="76" t="str">
         <f>C5</f>
         <v>ATK</v>
       </c>
-      <c r="AG3" s="101">
+      <c r="AG3" s="76">
         <f>E5</f>
         <v>3.8879999999999998E-2</v>
       </c>
@@ -1488,28 +1469,28 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="56">
         <v>1</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="71">
         <f>IF(C4=$T$3,(D4+1)*$U$3,IF(C4=$T$7,(D4+1)*$U$7,IF(C4=$T$8,(D4+1)*$U$8,IF(C4=$T$9,(D4+1)*$U$9,IF(C4=$T$10,(D4+1)*$U$10,IF(C4=$T$11,(D4+1)*$U$11,IF(C4=$T$12,(D4+1)*$U$12,IF(C4=$T$13,(D4+1)*$U$13,IF(C4=$T$14,(D4+1)*$U$14,IF(C4=$T$4,(D4+1)*$U$4,IF(C4=$T$5,(D4+1)*$U$5,IF(C4=$T$6,(D4+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="48">
         <f>Q4+N4</f>
         <v>2300</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="78">
         <f>SUMIF($AF$1:$AF$30,T4,$AG$1:$AG$30)</f>
         <v>705.6</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="79">
         <f>SUMIF($AF$1:$AF$30,T7,$AG$1:$AG$30)</f>
         <v>0</v>
       </c>
@@ -1520,41 +1501,41 @@
       <c r="M4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="50">
         <v>1058</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="50">
         <f>1242</f>
         <v>1242</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="51">
+      <c r="U4" s="49">
         <f t="shared" si="0"/>
         <v>38.103755</v>
       </c>
-      <c r="V4" s="73" t="str">
+      <c r="V4" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
-      <c r="W4" s="74">
+      <c r="W4" s="65">
         <v>33.869999999999997</v>
       </c>
-      <c r="X4" s="51">
+      <c r="X4" s="49">
         <v>38.103755</v>
       </c>
-      <c r="Y4" s="70">
+      <c r="Y4" s="62">
         <v>42.337510000000002</v>
       </c>
-      <c r="AF4" s="101" t="str">
+      <c r="AF4" s="76" t="str">
         <f>C6</f>
         <v>CR</v>
       </c>
-      <c r="AG4" s="101">
+      <c r="AG4" s="76">
         <f>E6</f>
         <v>0.11663999999999999</v>
       </c>
@@ -1563,12 +1544,12 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="58" t="str">
+      <c r="C5" s="54" t="str">
         <f>T8</f>
         <v>ATK</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="84">
+      <c r="D5" s="56"/>
+      <c r="E5" s="71">
         <f>IF(C5=$T$3,(D5+1)*$U$3,IF(C5=$T$7,(D5+1)*$U$7,IF(C5=$T$8,(D5+1)*$U$8,IF(C5=$T$9,(D5+1)*$U$9,IF(C5=$T$10,(D5+1)*$U$10,IF(C5=$T$11,(D5+1)*$U$11,IF(C5=$T$12,(D5+1)*$U$12,IF(C5=$T$13,(D5+1)*$U$13,IF(C5=$T$14,(D5+1)*$U$14,IF(C5=$T$4,(D5+1)*$U$4,IF(C5=$T$5,(D5+1)*$U$5,IF(C5=$T$6,(D5+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
@@ -1579,11 +1560,11 @@
         <f>Q5</f>
         <v>699</v>
       </c>
-      <c r="I5" s="105">
+      <c r="I5" s="80">
         <f>SUMIF($AF$1:$AF$30,T5,$AG$1:$AG$30)</f>
         <v>352.8</v>
       </c>
-      <c r="J5" s="106">
+      <c r="J5" s="81">
         <f>SUMIF($AF$1:$AF$30,T8,$AG$1:$AG$30)</f>
         <v>0.62639999999999996</v>
       </c>
@@ -1594,40 +1575,40 @@
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="50">
         <v>635</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="50">
         <v>699</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="49">
         <f t="shared" si="0"/>
         <v>19.051877000000001</v>
       </c>
-      <c r="V5" s="73" t="str">
+      <c r="V5" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
-      <c r="W5" s="74">
+      <c r="W5" s="65">
         <v>16.934999999999999</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="49">
         <v>19.051877000000001</v>
       </c>
-      <c r="Y5" s="70">
+      <c r="Y5" s="62">
         <v>21.168754</v>
       </c>
-      <c r="AF5" s="101" t="str">
+      <c r="AF5" s="76" t="str">
         <f>C7</f>
         <v>CD</v>
       </c>
-      <c r="AG5" s="101">
+      <c r="AG5" s="76">
         <f>E7</f>
         <v>0.11663999999999999</v>
       </c>
@@ -1636,14 +1617,14 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="58" t="str">
+      <c r="C6" s="54" t="str">
         <f>T13</f>
         <v>CR</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="56">
         <v>3</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="71">
         <f>IF(C6=$T$3,(D6+1)*$U$3,IF(C6=$T$7,(D6+1)*$U$7,IF(C6=$T$8,(D6+1)*$U$8,IF(C6=$T$9,(D6+1)*$U$9,IF(C6=$T$10,(D6+1)*$U$10,IF(C6=$T$11,(D6+1)*$U$11,IF(C6=$T$12,(D6+1)*$U$12,IF(C6=$T$13,(D6+1)*$U$13,IF(C6=$T$14,(D6+1)*$U$14,IF(C6=$T$4,(D6+1)*$U$4,IF(C6=$T$5,(D6+1)*$U$5,IF(C6=$T$6,(D6+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
@@ -1654,11 +1635,11 @@
         <f>Q6</f>
         <v>485</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="80">
         <f>SUMIF($AF$1:$AF$30,T6,$AG$1:$AG$30)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="106">
+      <c r="J6" s="81">
         <f>SUMIF($AF$1:$AF$30,T9,$AG$1:$AG$30)</f>
         <v>0</v>
       </c>
@@ -1669,41 +1650,41 @@
       <c r="M6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="51">
         <v>396</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="50">
         <f>485</f>
         <v>485</v>
       </c>
-      <c r="T6" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="51">
+      <c r="T6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="49">
         <f t="shared" si="0"/>
         <v>19.051877000000001</v>
       </c>
-      <c r="V6" s="73" t="str">
+      <c r="V6" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
-      <c r="W6" s="74">
+      <c r="W6" s="65">
         <v>16.934999999999999</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="49">
         <v>19.051877000000001</v>
       </c>
-      <c r="Y6" s="70">
+      <c r="Y6" s="62">
         <v>21.168754</v>
       </c>
-      <c r="AF6" s="101" t="str">
+      <c r="AF6" s="76" t="str">
         <f>C9</f>
         <v>ATK_</v>
       </c>
-      <c r="AG6" s="101">
+      <c r="AG6" s="76">
         <f>E9</f>
         <v>352.8</v>
       </c>
@@ -1712,14 +1693,14 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="str">
+      <c r="C7" s="57" t="str">
         <f>T14</f>
         <v>CD</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="58">
         <v>1</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="71">
         <f>IF(C7=$T$3,(D7+1)*$U$3,IF(C7=$T$7,(D7+1)*$U$7,IF(C7=$T$8,(D7+1)*$U$8,IF(C7=$T$9,(D7+1)*$U$9,IF(C7=$T$10,(D7+1)*$U$10,IF(C7=$T$11,(D7+1)*$U$11,IF(C7=$T$12,(D7+1)*$U$12,IF(C7=$T$13,(D7+1)*$U$13,IF(C7=$T$14,(D7+1)*$U$14,IF(C7=$T$4,(D7+1)*$U$4,IF(C7=$T$5,(D7+1)*$U$5,IF(C7=$T$6,(D7+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
@@ -1730,11 +1711,11 @@
         <f>Q7</f>
         <v>114</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="80">
         <f>SUMIF($AF$1:$AF$30,T3,$AG$1:$AG$30)</f>
         <v>48.032000000000004</v>
       </c>
-      <c r="J7" s="106"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37">
         <f t="shared" si="2"/>
         <v>162.03200000000001</v>
@@ -1742,18 +1723,18 @@
       <c r="P7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="50">
         <f>12+102</f>
         <v>114</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="83">
+      <c r="U7" s="70">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V7" s="61" t="str">
+      <c r="V7" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -1767,37 +1748,37 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z7" s="1"/>
-      <c r="AF7" s="101" t="str">
+      <c r="AF7" s="76" t="str">
         <f>C10</f>
         <v>SPD</v>
       </c>
-      <c r="AG7" s="101">
+      <c r="AG7" s="76">
         <f>E10</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="G8" s="10"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="78"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="37"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
-      <c r="T8" s="48" t="s">
+      <c r="P8" s="67"/>
+      <c r="Q8" s="68"/>
+      <c r="T8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="83">
+      <c r="U8" s="70">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V8" s="61" t="str">
+      <c r="V8" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -1811,11 +1792,11 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z8" s="1"/>
-      <c r="AF8" s="101" t="str">
+      <c r="AF8" s="76" t="str">
         <f>C11</f>
         <v>atk</v>
       </c>
-      <c r="AG8" s="101">
+      <c r="AG8" s="76">
         <f>E11</f>
         <v>3.8879999999999998E-2</v>
       </c>
@@ -1824,7 +1805,7 @@
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="59" t="str">
+      <c r="C9" s="55" t="str">
         <f>T19</f>
         <v>ATK_</v>
       </c>
@@ -1836,33 +1817,33 @@
       <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="82">
         <f>IF(Q9&lt;0.05,5%,Q9)</f>
         <v>0.05</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="108">
+      <c r="I9" s="66"/>
+      <c r="J9" s="83">
         <f>SUMIF($AF$1:$AF$30,T13,$AG$1:$AG$30)</f>
         <v>0.69983999999999991</v>
       </c>
-      <c r="K9" s="109">
+      <c r="K9" s="84">
         <f>J9+H9</f>
         <v>0.74983999999999995</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="52">
         <v>0.05</v>
       </c>
-      <c r="T9" s="48" t="s">
+      <c r="T9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="83">
+      <c r="U9" s="70">
         <f t="shared" si="0"/>
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="V9" s="61" t="str">
+      <c r="V9" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -1876,11 +1857,11 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z9" s="1"/>
-      <c r="AF9" s="101" t="str">
+      <c r="AF9" s="76" t="str">
         <f>C12</f>
         <v>cr</v>
       </c>
-      <c r="AG9" s="101">
+      <c r="AG9" s="76">
         <f>E12</f>
         <v>0.11663999999999999</v>
       </c>
@@ -1889,46 +1870,46 @@
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="56">
         <v>1</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="71">
         <f>IF(C10=$T$3,(D10+1)*$U$3,IF(C10=$T$7,(D10+1)*$U$7,IF(C10=$T$8,(D10+1)*$U$8,IF(C10=$T$9,(D10+1)*$U$9,IF(C10=$T$10,(D10+1)*$U$10,IF(C10=$T$11,(D10+1)*$U$11,IF(C10=$T$12,(D10+1)*$U$12,IF(C10=$T$13,(D10+1)*$U$13,IF(C10=$T$14,(D10+1)*$U$14,IF(C10=$T$4,(D10+1)*$U$4,IF(C10=$T$5,(D10+1)*$U$5,IF(C10=$T$6,(D10+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="82">
         <f>IF(Q10&lt;0.5,5%,Q10)</f>
         <v>0.5</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="108">
+      <c r="I10" s="66"/>
+      <c r="J10" s="83">
         <f>SUMIF($AF$1:$AF$30,T14,$AG$1:$AG$30)</f>
         <v>1.3478400000000001</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="84">
         <f>J10+H10</f>
         <v>1.8478400000000001</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="52">
         <v>0.5</v>
       </c>
-      <c r="T10" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="83">
+      <c r="T10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="70">
         <f t="shared" si="0"/>
         <v>5.8319999999999997E-2</v>
       </c>
-      <c r="V10" s="61" t="str">
+      <c r="V10" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -1942,11 +1923,11 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AF10" s="101" t="str">
+      <c r="AF10" s="76" t="str">
         <f>C13</f>
         <v>cd</v>
       </c>
-      <c r="AG10" s="101">
+      <c r="AG10" s="76">
         <f>E13</f>
         <v>0.11663999999999999</v>
       </c>
@@ -1955,44 +1936,44 @@
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="84">
+      <c r="D11" s="56"/>
+      <c r="E11" s="71">
         <f>IF(C11=$T$3,(D11+1)*$U$3,IF(C11=$T$7,(D11+1)*$U$7,IF(C11=$T$8,(D11+1)*$U$8,IF(C11=$T$9,(D11+1)*$U$9,IF(C11=$T$10,(D11+1)*$U$10,IF(C11=$T$11,(D11+1)*$U$11,IF(C11=$T$12,(D11+1)*$U$12,IF(C11=$T$13,(D11+1)*$U$13,IF(C11=$T$14,(D11+1)*$U$14,IF(C11=$T$4,(D11+1)*$U$4,IF(C11=$T$5,(D11+1)*$U$5,IF(C11=$T$6,(D11+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="82">
         <f>Q11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="108">
+      <c r="I11" s="66"/>
+      <c r="J11" s="83">
         <f>SUMIF($AF$1:$AF$30,T10,$AG$1:$AG$30)</f>
         <v>0.17496</v>
       </c>
-      <c r="K11" s="109">
+      <c r="K11" s="84">
         <f t="shared" ref="K11" si="3">J11+H11</f>
         <v>0.17496</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="52">
         <v>0</v>
       </c>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="83">
+      <c r="U11" s="70">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V11" s="61" t="str">
+      <c r="V11" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -2006,11 +1987,11 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z11" s="1"/>
-      <c r="AF11" s="101" t="str">
+      <c r="AF11" s="76" t="str">
         <f>C15</f>
         <v>CD</v>
       </c>
-      <c r="AG11" s="101">
+      <c r="AG11" s="76">
         <f>E15</f>
         <v>0.64800000000000002</v>
       </c>
@@ -2019,43 +2000,43 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="56">
         <v>3</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="71">
         <f>IF(C12=$T$3,(D12+1)*$U$3,IF(C12=$T$7,(D12+1)*$U$7,IF(C12=$T$8,(D12+1)*$U$8,IF(C12=$T$9,(D12+1)*$U$9,IF(C12=$T$10,(D12+1)*$U$10,IF(C12=$T$11,(D12+1)*$U$11,IF(C12=$T$12,(D12+1)*$U$12,IF(C12=$T$13,(D12+1)*$U$13,IF(C12=$T$14,(D12+1)*$U$14,IF(C12=$T$4,(D12+1)*$U$4,IF(C12=$T$5,(D12+1)*$U$5,IF(C12=$T$6,(D12+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="82">
         <f>Q12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="108">
+      <c r="I12" s="66"/>
+      <c r="J12" s="83">
         <f>SUMIF($AF$1:$AF$30,T26,$AG$1:$AG$30)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="109"/>
+      <c r="K12" s="84"/>
       <c r="P12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="52">
         <v>0</v>
       </c>
-      <c r="T12" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" s="83">
+      <c r="T12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" s="70">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V12" s="61" t="str">
+      <c r="V12" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -2069,11 +2050,11 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AF12" s="101" t="str">
+      <c r="AF12" s="76" t="str">
         <f>C16</f>
         <v>SPD</v>
       </c>
-      <c r="AG12" s="101">
+      <c r="AG12" s="76">
         <f>E16</f>
         <v>4.5999999999999996</v>
       </c>
@@ -2082,46 +2063,46 @@
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="58">
         <v>1</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="71">
         <f>IF(C13=$T$3,(D13+1)*$U$3,IF(C13=$T$7,(D13+1)*$U$7,IF(C13=$T$8,(D13+1)*$U$8,IF(C13=$T$9,(D13+1)*$U$9,IF(C13=$T$10,(D13+1)*$U$10,IF(C13=$T$11,(D13+1)*$U$11,IF(C13=$T$12,(D13+1)*$U$12,IF(C13=$T$13,(D13+1)*$U$13,IF(C13=$T$14,(D13+1)*$U$14,IF(C13=$T$4,(D13+1)*$U$4,IF(C13=$T$5,(D13+1)*$U$5,IF(C13=$T$6,(D13+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="107">
+        <v>66</v>
+      </c>
+      <c r="H13" s="82">
         <f>IF(Q13&lt;1,100%,Q13)</f>
         <v>1.2</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="108">
+      <c r="I13" s="66"/>
+      <c r="J13" s="83">
         <f>SUMIF($AF$1:$AF$30,T25,$AG$1:$AG$30)</f>
         <v>0.19439400000000001</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="84">
         <f>J13+H13</f>
         <v>1.3943939999999999</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="56">
+      <c r="Q13" s="52">
         <v>1.2</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="83">
+      <c r="U13" s="70">
         <f t="shared" si="0"/>
         <v>2.9159999999999998E-2</v>
       </c>
-      <c r="V13" s="61" t="str">
+      <c r="V13" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -2135,70 +2116,70 @@
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AF13" s="101" t="str">
+      <c r="AF13" s="76" t="str">
         <f>C17</f>
         <v>atk</v>
       </c>
-      <c r="AG13" s="101">
+      <c r="AG13" s="76">
         <f>E17</f>
         <v>3.8879999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
       <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="85">
         <f>Q14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="111">
+      <c r="I14" s="69"/>
+      <c r="J14" s="86">
         <f>SUMIF($AF$1:$AF$30,T11,$AG$1:$AG$30)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="112">
+      <c r="K14" s="87">
         <f>J14+H14</f>
         <v>0</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="53">
         <v>0</v>
       </c>
-      <c r="T14" s="49" t="s">
+      <c r="T14" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="85">
+      <c r="U14" s="72">
         <f t="shared" si="0"/>
         <v>5.8319999999999997E-2</v>
       </c>
-      <c r="V14" s="65" t="str">
+      <c r="V14" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
       <c r="W14" s="28">
         <v>5.1839999999999997E-2</v>
       </c>
-      <c r="X14" s="71">
+      <c r="X14" s="63">
         <v>5.8319999999999997E-2</v>
       </c>
       <c r="Y14" s="26">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AF14" s="101" t="str">
+      <c r="AF14" s="76" t="str">
         <f>C18</f>
         <v>cr</v>
       </c>
-      <c r="AG14" s="101">
+      <c r="AG14" s="76">
         <f>E18</f>
         <v>0.14579999999999999</v>
       </c>
@@ -2207,7 +2188,7 @@
       <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="59" t="str">
+      <c r="C15" s="55" t="str">
         <f>T29</f>
         <v>CD</v>
       </c>
@@ -2217,11 +2198,11 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AF15" s="101" t="str">
+      <c r="AF15" s="76" t="str">
         <f>C19</f>
         <v>be</v>
       </c>
-      <c r="AG15" s="101">
+      <c r="AG15" s="76">
         <f>E19</f>
         <v>5.8319999999999997E-2</v>
       </c>
@@ -2230,13 +2211,13 @@
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="56">
         <v>1</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="71">
         <f>IF(C16=$T$3,(D16+1)*$U$3,IF(C16=$T$7,(D16+1)*$U$7,IF(C16=$T$8,(D16+1)*$U$8,IF(C16=$T$9,(D16+1)*$U$9,IF(C16=$T$10,(D16+1)*$U$10,IF(C16=$T$11,(D16+1)*$U$11,IF(C16=$T$12,(D16+1)*$U$12,IF(C16=$T$13,(D16+1)*$U$13,IF(C16=$T$14,(D16+1)*$U$14,IF(C16=$T$4,(D16+1)*$U$4,IF(C16=$T$5,(D16+1)*$U$5,IF(C16=$T$6,(D16+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
@@ -2253,11 +2234,11 @@
         <v>31</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AF16" s="101" t="str">
+      <c r="AF16" s="76" t="str">
         <f>C21</f>
         <v>SPD</v>
       </c>
-      <c r="AG16" s="101">
+      <c r="AG16" s="76">
         <f>E21</f>
         <v>25.032</v>
       </c>
@@ -2266,35 +2247,35 @@
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="84">
+      <c r="D17" s="56"/>
+      <c r="E17" s="71">
         <f>IF(C17=$T$3,(D17+1)*$U$3,IF(C17=$T$7,(D17+1)*$U$7,IF(C17=$T$8,(D17+1)*$U$8,IF(C17=$T$9,(D17+1)*$U$9,IF(C17=$T$10,(D17+1)*$U$10,IF(C17=$T$11,(D17+1)*$U$11,IF(C17=$T$12,(D17+1)*$U$12,IF(C17=$T$13,(D17+1)*$U$13,IF(C17=$T$14,(D17+1)*$U$14,IF(C17=$T$4,(D17+1)*$U$4,IF(C17=$T$5,(D17+1)*$U$5,IF(C17=$T$6,(D17+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="L17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="48" t="s">
         <v>15</v>
       </c>
       <c r="U17" s="31">
         <v>25.032</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="48">
         <v>4.032</v>
       </c>
       <c r="W17" s="31">
         <v>1.4</v>
       </c>
       <c r="Z17" s="1"/>
-      <c r="AF17" s="101" t="str">
+      <c r="AF17" s="76" t="str">
         <f>C22</f>
         <v>Be</v>
       </c>
-      <c r="AG17" s="101">
+      <c r="AG17" s="76">
         <f>E22</f>
         <v>5.8319999999999997E-2</v>
       </c>
@@ -2303,13 +2284,13 @@
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="56">
         <v>4</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="71">
         <f>IF(C18=$T$3,(D18+1)*$U$3,IF(C18=$T$7,(D18+1)*$U$7,IF(C18=$T$8,(D18+1)*$U$8,IF(C18=$T$9,(D18+1)*$U$9,IF(C18=$T$10,(D18+1)*$U$10,IF(C18=$T$11,(D18+1)*$U$11,IF(C18=$T$12,(D18+1)*$U$12,IF(C18=$T$13,(D18+1)*$U$13,IF(C18=$T$14,(D18+1)*$U$14,IF(C18=$T$4,(D18+1)*$U$4,IF(C18=$T$5,(D18+1)*$U$5,IF(C18=$T$6,(D18+1)*$U$6))))))))))))</f>
         <v>0.14579999999999999</v>
       </c>
@@ -2318,21 +2299,21 @@
       <c r="T18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="84">
+      <c r="U18" s="71">
         <v>705.6</v>
       </c>
       <c r="V18" s="4">
         <v>112.896</v>
       </c>
-      <c r="W18" s="84">
+      <c r="W18" s="71">
         <v>39.513599999999997</v>
       </c>
       <c r="Z18" s="1"/>
-      <c r="AF18" s="101" t="str">
+      <c r="AF18" s="76" t="str">
         <f>C23</f>
         <v>atk</v>
       </c>
-      <c r="AG18" s="101">
+      <c r="AG18" s="76">
         <f>E23</f>
         <v>3.8879999999999998E-2</v>
       </c>
@@ -2341,11 +2322,11 @@
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="84">
+      <c r="C19" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="71">
         <f>IF(C19=$T$3,(D19+1)*$U$3,IF(C19=$T$7,(D19+1)*$U$7,IF(C19=$T$8,(D19+1)*$U$8,IF(C19=$T$9,(D19+1)*$U$9,IF(C19=$T$10,(D19+1)*$U$10,IF(C19=$T$11,(D19+1)*$U$11,IF(C19=$T$12,(D19+1)*$U$12,IF(C19=$T$13,(D19+1)*$U$13,IF(C19=$T$14,(D19+1)*$U$14,IF(C19=$T$4,(D19+1)*$U$4,IF(C19=$T$5,(D19+1)*$U$5,IF(C19=$T$6,(D19+1)*$U$6))))))))))))</f>
         <v>5.8319999999999997E-2</v>
       </c>
@@ -2354,44 +2335,44 @@
       <c r="T19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U19" s="84">
+      <c r="U19" s="71">
         <v>352.8</v>
       </c>
       <c r="V19" s="4">
         <v>56.448</v>
       </c>
-      <c r="W19" s="84">
+      <c r="W19" s="71">
         <v>19.756799999999998</v>
       </c>
       <c r="Z19" s="1"/>
-      <c r="AF19" s="101" t="str">
+      <c r="AF19" s="76" t="str">
         <f>C24</f>
         <v>cr</v>
       </c>
-      <c r="AG19" s="101">
+      <c r="AG19" s="76">
         <f>E24</f>
         <v>0.11663999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="G20" s="93" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="G20" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-      <c r="L20" s="93" t="s">
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="L20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="95"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="97"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="4" t="s">
@@ -2407,11 +2388,11 @@
         <v>2.4192000000000002E-2</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AF20" s="101" t="str">
+      <c r="AF20" s="76" t="str">
         <f>C25</f>
         <v>cd</v>
       </c>
-      <c r="AG20" s="101">
+      <c r="AG20" s="76">
         <f>E25</f>
         <v>0.17496</v>
       </c>
@@ -2420,7 +2401,7 @@
       <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="59" t="str">
+      <c r="C21" s="55" t="str">
         <f>T17</f>
         <v>SPD</v>
       </c>
@@ -2432,7 +2413,7 @@
       <c r="G21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="59" t="str">
+      <c r="H21" s="55" t="str">
         <f>T25</f>
         <v>ERR</v>
       </c>
@@ -2444,7 +2425,7 @@
       <c r="L21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="59" t="str">
+      <c r="M21" s="55" t="str">
         <f>T21</f>
         <v>ATK</v>
       </c>
@@ -2466,11 +2447,11 @@
         <v>2.4192000000000002E-2</v>
       </c>
       <c r="Z21" s="1"/>
-      <c r="AF21" s="101" t="str">
+      <c r="AF21" s="76" t="str">
         <f>H21</f>
         <v>ERR</v>
       </c>
-      <c r="AG21" s="101">
+      <c r="AG21" s="76">
         <f>J21</f>
         <v>0.19439400000000001</v>
       </c>
@@ -2479,37 +2460,37 @@
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="84">
+      <c r="C22" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="71">
         <f>IF(C22=$T$3,(D22+1)*$U$3,IF(C22=$T$7,(D22+1)*$U$7,IF(C22=$T$8,(D22+1)*$U$8,IF(C22=$T$9,(D22+1)*$U$9,IF(C22=$T$10,(D22+1)*$U$10,IF(C22=$T$11,(D22+1)*$U$11,IF(C22=$T$12,(D22+1)*$U$12,IF(C22=$T$13,(D22+1)*$U$13,IF(C22=$T$14,(D22+1)*$U$14,IF(C22=$T$4,(D22+1)*$U$4,IF(C22=$T$5,(D22+1)*$U$5,IF(C22=$T$6,(D22+1)*$U$6))))))))))))</f>
         <v>5.8319999999999997E-2</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="56">
         <v>1</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="71">
         <f>IF(H22=$T$3,(I22+1)*$U$3,IF(H22=$T$7,(I22+1)*$U$7,IF(H22=$T$8,(I22+1)*$U$8,IF(H22=$T$9,(I22+1)*$U$9,IF(H22=$T$10,(I22+1)*$U$10,IF(H22=$T$11,(I22+1)*$U$11,IF(H22=$T$12,(I22+1)*$U$12,IF(H22=$T$13,(I22+1)*$U$13,IF(H22=$T$14,(I22+1)*$U$14,IF(H22=$T$4,(I22+1)*$U$4,IF(H22=$T$5,(I22+1)*$U$5,IF(H22=$T$6,(I22+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="56">
         <v>1</v>
       </c>
-      <c r="O22" s="84">
+      <c r="O22" s="71">
         <f>IF(M22=$T$3,(N22+1)*$U$3,IF(M22=$T$7,(N22+1)*$U$7,IF(M22=$T$8,(N22+1)*$U$8,IF(M22=$T$9,(N22+1)*$U$9,IF(M22=$T$10,(N22+1)*$U$10,IF(M22=$T$11,(N22+1)*$U$11,IF(M22=$T$12,(N22+1)*$U$12,IF(M22=$T$13,(N22+1)*$U$13,IF(M22=$T$14,(N22+1)*$U$14,IF(M22=$T$4,(N22+1)*$U$4,IF(M22=$T$5,(N22+1)*$U$5,IF(M22=$T$6,(N22+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
@@ -2526,11 +2507,11 @@
         <v>3.024E-2</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AF22" s="101" t="str">
+      <c r="AF22" s="76" t="str">
         <f>H22</f>
         <v>spd</v>
       </c>
-      <c r="AG22" s="101">
+      <c r="AG22" s="76">
         <f>J22</f>
         <v>4.5999999999999996</v>
       </c>
@@ -2539,38 +2520,38 @@
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="84">
+      <c r="D23" s="56"/>
+      <c r="E23" s="71">
         <f>IF(C23=$T$3,(D23+1)*$U$3,IF(C23=$T$7,(D23+1)*$U$7,IF(C23=$T$8,(D23+1)*$U$8,IF(C23=$T$9,(D23+1)*$U$9,IF(C23=$T$10,(D23+1)*$U$10,IF(C23=$T$11,(D23+1)*$U$11,IF(C23=$T$12,(D23+1)*$U$12,IF(C23=$T$13,(D23+1)*$U$13,IF(C23=$T$14,(D23+1)*$U$14,IF(C23=$T$4,(D23+1)*$U$4,IF(C23=$T$5,(D23+1)*$U$5,IF(C23=$T$6,(D23+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="84">
+      <c r="I23" s="56"/>
+      <c r="J23" s="71">
         <f>IF(H23=$T$3,(I23+1)*$U$3,IF(H23=$T$7,(I23+1)*$U$7,IF(H23=$T$8,(I23+1)*$U$8,IF(H23=$T$9,(I23+1)*$U$9,IF(H23=$T$10,(I23+1)*$U$10,IF(H23=$T$11,(I23+1)*$U$11,IF(H23=$T$12,(I23+1)*$U$12,IF(H23=$T$13,(I23+1)*$U$13,IF(H23=$T$14,(I23+1)*$U$14,IF(H23=$T$4,(I23+1)*$U$4,IF(H23=$T$5,(I23+1)*$U$5,IF(H23=$T$6,(I23+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="84">
+      <c r="M23" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="56"/>
+      <c r="O23" s="71">
         <f>IF(M23=$T$3,(N23+1)*$U$3,IF(M23=$T$7,(N23+1)*$U$7,IF(M23=$T$8,(N23+1)*$U$8,IF(M23=$T$9,(N23+1)*$U$9,IF(M23=$T$10,(N23+1)*$U$10,IF(M23=$T$11,(N23+1)*$U$11,IF(M23=$T$12,(N23+1)*$U$12,IF(M23=$T$13,(N23+1)*$U$13,IF(M23=$T$14,(N23+1)*$U$14,IF(M23=$T$4,(N23+1)*$U$4,IF(M23=$T$5,(N23+1)*$U$5,IF(M23=$T$6,(N23+1)*$U$6))))))))))))</f>
         <v>5.8319999999999997E-2</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U23" s="24">
         <v>0.64800000000000002</v>
@@ -2581,11 +2562,11 @@
       <c r="W23" s="24">
         <v>3.6276999999999997E-2</v>
       </c>
-      <c r="AF23" s="101" t="str">
+      <c r="AF23" s="76" t="str">
         <f>H23</f>
         <v>atk</v>
       </c>
-      <c r="AG23" s="101">
+      <c r="AG23" s="76">
         <f>J23</f>
         <v>3.8879999999999998E-2</v>
       </c>
@@ -2594,39 +2575,39 @@
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="56">
         <v>3</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="71">
         <f>IF(C24=$T$3,(D24+1)*$U$3,IF(C24=$T$7,(D24+1)*$U$7,IF(C24=$T$8,(D24+1)*$U$8,IF(C24=$T$9,(D24+1)*$U$9,IF(C24=$T$10,(D24+1)*$U$10,IF(C24=$T$11,(D24+1)*$U$11,IF(C24=$T$12,(D24+1)*$U$12,IF(C24=$T$13,(D24+1)*$U$13,IF(C24=$T$14,(D24+1)*$U$14,IF(C24=$T$4,(D24+1)*$U$4,IF(C24=$T$5,(D24+1)*$U$5,IF(C24=$T$6,(D24+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="56">
         <v>2</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="71">
         <f>IF(H24=$T$3,(I24+1)*$U$3,IF(H24=$T$7,(I24+1)*$U$7,IF(H24=$T$8,(I24+1)*$U$8,IF(H24=$T$9,(I24+1)*$U$9,IF(H24=$T$10,(I24+1)*$U$10,IF(H24=$T$11,(I24+1)*$U$11,IF(H24=$T$12,(I24+1)*$U$12,IF(H24=$T$13,(I24+1)*$U$13,IF(H24=$T$14,(I24+1)*$U$14,IF(H24=$T$4,(I24+1)*$U$4,IF(H24=$T$5,(I24+1)*$U$5,IF(H24=$T$6,(I24+1)*$U$6))))))))))))</f>
         <v>8.7480000000000002E-2</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="58" t="s">
+      <c r="M24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="61">
+      <c r="N24" s="56">
         <v>3</v>
       </c>
-      <c r="O24" s="84">
+      <c r="O24" s="71">
         <f>IF(M24=$T$3,(N24+1)*$U$3,IF(M24=$T$7,(N24+1)*$U$7,IF(M24=$T$8,(N24+1)*$U$8,IF(M24=$T$9,(N24+1)*$U$9,IF(M24=$T$10,(N24+1)*$U$10,IF(M24=$T$11,(N24+1)*$U$11,IF(M24=$T$12,(N24+1)*$U$12,IF(M24=$T$13,(N24+1)*$U$13,IF(M24=$T$14,(N24+1)*$U$14,IF(M24=$T$4,(N24+1)*$U$4,IF(M24=$T$5,(N24+1)*$U$5,IF(M24=$T$6,(N24+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
@@ -2642,11 +2623,11 @@
       <c r="W24" s="24">
         <v>2.4192000000000002E-2</v>
       </c>
-      <c r="AF24" s="101" t="str">
+      <c r="AF24" s="76" t="str">
         <f>H24</f>
         <v>cr</v>
       </c>
-      <c r="AG24" s="101">
+      <c r="AG24" s="76">
         <f>J24</f>
         <v>8.7480000000000002E-2</v>
       </c>
@@ -2655,44 +2636,44 @@
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="58">
         <v>2</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="71">
         <f>IF(C25=$T$3,(D25+1)*$U$3,IF(C25=$T$7,(D25+1)*$U$7,IF(C25=$T$8,(D25+1)*$U$8,IF(C25=$T$9,(D25+1)*$U$9,IF(C25=$T$10,(D25+1)*$U$10,IF(C25=$T$11,(D25+1)*$U$11,IF(C25=$T$12,(D25+1)*$U$12,IF(C25=$T$13,(D25+1)*$U$13,IF(C25=$T$14,(D25+1)*$U$14,IF(C25=$T$4,(D25+1)*$U$4,IF(C25=$T$5,(D25+1)*$U$5,IF(C25=$T$6,(D25+1)*$U$6))))))))))))</f>
         <v>0.17496</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="58">
         <v>2</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="71">
         <f>IF(H25=$T$3,(I25+1)*$U$3,IF(H25=$T$7,(I25+1)*$U$7,IF(H25=$T$8,(I25+1)*$U$8,IF(H25=$T$9,(I25+1)*$U$9,IF(H25=$T$10,(I25+1)*$U$10,IF(H25=$T$11,(I25+1)*$U$11,IF(H25=$T$12,(I25+1)*$U$12,IF(H25=$T$13,(I25+1)*$U$13,IF(H25=$T$14,(I25+1)*$U$14,IF(H25=$T$4,(I25+1)*$U$4,IF(H25=$T$5,(I25+1)*$U$5,IF(H25=$T$6,(I25+1)*$U$6))))))))))))</f>
         <v>0.17496</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="63" t="s">
+      <c r="M25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="65">
+      <c r="N25" s="58">
         <v>1</v>
       </c>
-      <c r="O25" s="84">
+      <c r="O25" s="71">
         <f>IF(M25=$T$3,(N25+1)*$U$3,IF(M25=$T$7,(N25+1)*$U$7,IF(M25=$T$8,(N25+1)*$U$8,IF(M25=$T$9,(N25+1)*$U$9,IF(M25=$T$10,(N25+1)*$U$10,IF(M25=$T$11,(N25+1)*$U$11,IF(M25=$T$12,(N25+1)*$U$12,IF(M25=$T$13,(N25+1)*$U$13,IF(M25=$T$14,(N25+1)*$U$14,IF(M25=$T$4,(N25+1)*$U$4,IF(M25=$T$5,(N25+1)*$U$5,IF(M25=$T$6,(N25+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U25" s="24">
         <v>0.19439400000000001</v>
@@ -2703,11 +2684,11 @@
       <c r="W25" s="24">
         <v>1.0886E-2</v>
       </c>
-      <c r="AF25" s="101" t="str">
+      <c r="AF25" s="76" t="str">
         <f>H25</f>
         <v>cd</v>
       </c>
-      <c r="AG25" s="101">
+      <c r="AG25" s="76">
         <f>J25</f>
         <v>0.17496</v>
       </c>
@@ -2725,18 +2706,18 @@
       <c r="W26" s="24">
         <v>1.9354E-2</v>
       </c>
-      <c r="AF26" s="101" t="str">
+      <c r="AF26" s="76" t="str">
         <f>M21</f>
         <v>ATK</v>
       </c>
-      <c r="AG26" s="101">
+      <c r="AG26" s="76">
         <f>O21</f>
         <v>0.432</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U27" s="24">
         <v>0.38880300000000001</v>
@@ -2747,22 +2728,22 @@
       <c r="W27" s="24">
         <v>2.1773000000000001E-2</v>
       </c>
-      <c r="AF27" s="101" t="str">
+      <c r="AF27" s="76" t="str">
         <f>M22</f>
         <v>spd</v>
       </c>
-      <c r="AG27" s="101">
+      <c r="AG27" s="76">
         <f>O22</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98"/>
+      <c r="B28" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
       <c r="T28" s="4" t="s">
         <v>45</v>
       </c>
@@ -2775,11 +2756,11 @@
       <c r="W28" s="24">
         <v>1.8144E-2</v>
       </c>
-      <c r="AF28" s="101" t="str">
+      <c r="AF28" s="76" t="str">
         <f>M23</f>
         <v>be</v>
       </c>
-      <c r="AG28" s="101">
+      <c r="AG28" s="76">
         <f>O23</f>
         <v>5.8319999999999997E-2</v>
       </c>
@@ -2788,11 +2769,11 @@
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
+      <c r="C29" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
       <c r="T29" s="6" t="s">
         <v>44</v>
       </c>
@@ -2805,11 +2786,11 @@
       <c r="W29" s="26">
         <v>3.6288000000000001E-2</v>
       </c>
-      <c r="AF29" s="101" t="str">
+      <c r="AF29" s="76" t="str">
         <f>M24</f>
         <v>cr</v>
       </c>
-      <c r="AG29" s="101">
+      <c r="AG29" s="76">
         <f>O24</f>
         <v>0.11663999999999999</v>
       </c>
@@ -2818,16 +2799,16 @@
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="AF30" s="101" t="str">
+      <c r="C30" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="AF30" s="76" t="str">
         <f>M25</f>
         <v>cd</v>
       </c>
-      <c r="AG30" s="101">
+      <c r="AG30" s="76">
         <f>O25</f>
         <v>0.11663999999999999</v>
       </c>
@@ -2836,104 +2817,110 @@
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
+      <c r="C31" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
+      <c r="C32" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="99"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
+        <v>67</v>
+      </c>
+      <c r="C36" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="87"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
     </row>
     <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C40:E40"/>
@@ -2950,12 +2937,6 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2969,11 +2950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FE958B-0E64-4991-86B6-E7229C15E726}">
-  <dimension ref="B1:AA39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59BCE0C-1070-46F5-83AB-55E37DF7CBC7}">
+  <dimension ref="B1:AG40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,54 +2970,70 @@
     <col min="29" max="29" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="93" t="s">
+    <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF1" s="76" t="str">
+        <f>C3</f>
+        <v>HP_</v>
+      </c>
+      <c r="AG1" s="76">
+        <f>E3</f>
+        <v>705.6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="G2" s="88" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="G2" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="M2" s="99" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="M2" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="100"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="99" t="s">
+      <c r="N2" s="89"/>
+      <c r="P2" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="100"/>
-      <c r="T2" s="66" t="s">
+      <c r="Q2" s="89"/>
+      <c r="T2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="67" t="s">
+      <c r="U2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="68" t="s">
+      <c r="X2" s="60" t="s">
         <v>18</v>
       </c>
       <c r="Y2" s="31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF2" s="76" t="str">
+        <f>C4</f>
+        <v>SPD</v>
+      </c>
+      <c r="AG2" s="76">
+        <f>E4</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59" t="str">
+      <c r="C3" s="55" t="str">
         <f>T18</f>
         <v>HP_</v>
       </c>
@@ -3052,7 +3049,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>29</v>
@@ -3060,65 +3057,76 @@
       <c r="K3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="81">
+      <c r="U3" s="73">
         <f t="shared" ref="U3:U14" si="0">IF(V3=$W$2,W3,IF(V3=$X$2,X3,IF(V3=$Y$2,Y3)))</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="V3" s="61" t="str">
+      <c r="V3" s="56" t="str">
         <f t="shared" ref="V3:V14" si="1">$X$2</f>
         <v>Med</v>
       </c>
       <c r="W3" s="4">
         <v>2</v>
       </c>
-      <c r="X3" s="81">
+      <c r="X3" s="73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Y3" s="80">
+      <c r="Y3" s="74">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF3" s="76" t="str">
+        <f>C5</f>
+        <v>ATK</v>
+      </c>
+      <c r="AG3" s="76">
+        <f>E5</f>
+        <v>3.8879999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="56">
         <v>1</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="74">
         <f>IF(C4=$T$3,(D4+1)*$U$3,IF(C4=$T$7,(D4+1)*$U$7,IF(C4=$T$8,(D4+1)*$U$8,IF(C4=$T$9,(D4+1)*$U$9,IF(C4=$T$10,(D4+1)*$U$10,IF(C4=$T$11,(D4+1)*$U$11,IF(C4=$T$12,(D4+1)*$U$12,IF(C4=$T$13,(D4+1)*$U$13,IF(C4=$T$14,(D4+1)*$U$14,IF(C4=$T$4,(D4+1)*$U$4,IF(C4=$T$5,(D4+1)*$U$5,IF(C4=$T$6,(D4+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="48">
         <f>Q4+N4</f>
         <v>2300</v>
       </c>
-      <c r="I4" s="59">
-        <f>E3</f>
+      <c r="I4" s="78">
+        <f>SUMIF($AF$1:$AF$30,T4,$AG$1:$AG$30)</f>
         <v>705.6</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="79">
+        <f>SUMIF($AF$1:$AF$30,T7,$AG$1:$AG$30)</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="37">
         <f>(H4*(1+J4))+I4</f>
         <v>3005.6</v>
@@ -3126,63 +3134,71 @@
       <c r="M4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="50">
         <v>1058</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="50">
         <f>1242</f>
         <v>1242</v>
       </c>
-      <c r="T4" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="51">
+      <c r="T4" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="49">
         <f t="shared" si="0"/>
         <v>38.103755</v>
       </c>
-      <c r="V4" s="73" t="str">
+      <c r="V4" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
-      <c r="W4" s="74">
+      <c r="W4" s="65">
         <v>33.869999999999997</v>
       </c>
-      <c r="X4" s="51">
+      <c r="X4" s="49">
         <v>38.103755</v>
       </c>
-      <c r="Y4" s="70">
+      <c r="Y4" s="62">
         <v>42.337510000000002</v>
       </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF4" s="76" t="str">
+        <f>C6</f>
+        <v>CR</v>
+      </c>
+      <c r="AG4" s="76">
+        <f>E6</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="58" t="str">
+      <c r="C5" s="54" t="str">
         <f>T8</f>
         <v>ATK</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="80">
+      <c r="D5" s="56"/>
+      <c r="E5" s="74">
         <f>IF(C5=$T$3,(D5+1)*$U$3,IF(C5=$T$7,(D5+1)*$U$7,IF(C5=$T$8,(D5+1)*$U$8,IF(C5=$T$9,(D5+1)*$U$9,IF(C5=$T$10,(D5+1)*$U$10,IF(C5=$T$11,(D5+1)*$U$11,IF(C5=$T$12,(D5+1)*$U$12,IF(C5=$T$13,(D5+1)*$U$13,IF(C5=$T$14,(D5+1)*$U$14,IF(C5=$T$4,(D5+1)*$U$4,IF(C5=$T$5,(D5+1)*$U$5,IF(C5=$T$6,(D5+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="12">
         <f>Q5</f>
         <v>699</v>
       </c>
-      <c r="I5" s="58">
-        <f>E9</f>
+      <c r="I5" s="80">
+        <f>SUMIF($AF$1:$AF$30,T5,$AG$1:$AG$30)</f>
         <v>352.8</v>
       </c>
-      <c r="J5" s="61">
-        <f>E5+E11+E17+E23+J23+O21</f>
+      <c r="J5" s="81">
+        <f>SUMIF($AF$1:$AF$30,T8,$AG$1:$AG$30)</f>
         <v>0.62639999999999996</v>
       </c>
       <c r="K5" s="37">
@@ -3192,61 +3208,74 @@
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="50">
         <v>635</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="54">
-        <f>699</f>
+      <c r="Q5" s="50">
         <v>699</v>
       </c>
-      <c r="T5" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="51">
+      <c r="T5" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="49">
         <f t="shared" si="0"/>
         <v>19.051877000000001</v>
       </c>
-      <c r="V5" s="73" t="str">
+      <c r="V5" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
-      <c r="W5" s="74">
+      <c r="W5" s="65">
         <v>16.934999999999999</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="49">
         <v>19.051877000000001</v>
       </c>
-      <c r="Y5" s="70">
+      <c r="Y5" s="62">
         <v>21.168754</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF5" s="76" t="str">
+        <f>C7</f>
+        <v>CD</v>
+      </c>
+      <c r="AG5" s="76">
+        <f>E7</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="58" t="str">
+      <c r="C6" s="54" t="str">
         <f>T13</f>
         <v>CR</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="56">
         <v>3</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="74">
         <f>IF(C6=$T$3,(D6+1)*$U$3,IF(C6=$T$7,(D6+1)*$U$7,IF(C6=$T$8,(D6+1)*$U$8,IF(C6=$T$9,(D6+1)*$U$9,IF(C6=$T$10,(D6+1)*$U$10,IF(C6=$T$11,(D6+1)*$U$11,IF(C6=$T$12,(D6+1)*$U$12,IF(C6=$T$13,(D6+1)*$U$13,IF(C6=$T$14,(D6+1)*$U$14,IF(C6=$T$4,(D6+1)*$U$4,IF(C6=$T$5,(D6+1)*$U$5,IF(C6=$T$6,(D6+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="12">
         <f>Q6</f>
         <v>485</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="61"/>
+      <c r="I6" s="80">
+        <f>SUMIF($AF$1:$AF$30,T6,$AG$1:$AG$30)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="81">
+        <f>SUMIF($AF$1:$AF$30,T9,$AG$1:$AG$30)</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="37">
         <f t="shared" si="2"/>
         <v>485</v>
@@ -3254,64 +3283,72 @@
       <c r="M6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="51">
         <v>396</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="50">
         <f>485</f>
         <v>485</v>
       </c>
-      <c r="T6" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="51">
+      <c r="T6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="49">
         <f t="shared" si="0"/>
         <v>19.051877000000001</v>
       </c>
-      <c r="V6" s="73" t="str">
+      <c r="V6" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
-      <c r="W6" s="74">
+      <c r="W6" s="65">
         <v>16.934999999999999</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="49">
         <v>19.051877000000001</v>
       </c>
-      <c r="Y6" s="70">
+      <c r="Y6" s="62">
         <v>21.168754</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF6" s="76" t="str">
+        <f>C9</f>
+        <v>ATK_</v>
+      </c>
+      <c r="AG6" s="76">
+        <f>E9</f>
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="str">
+      <c r="C7" s="57" t="str">
         <f>T14</f>
         <v>CD</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="58">
         <v>1</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="74">
         <f>IF(C7=$T$3,(D7+1)*$U$3,IF(C7=$T$7,(D7+1)*$U$7,IF(C7=$T$8,(D7+1)*$U$8,IF(C7=$T$9,(D7+1)*$U$9,IF(C7=$T$10,(D7+1)*$U$10,IF(C7=$T$11,(D7+1)*$U$11,IF(C7=$T$12,(D7+1)*$U$12,IF(C7=$T$13,(D7+1)*$U$13,IF(C7=$T$14,(D7+1)*$U$14,IF(C7=$T$4,(D7+1)*$U$4,IF(C7=$T$5,(D7+1)*$U$5,IF(C7=$T$6,(D7+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="12">
         <f>Q7</f>
         <v>114</v>
       </c>
-      <c r="I7" s="58">
-        <f>E4+E10+E16+E21+J22+O22</f>
+      <c r="I7" s="80">
+        <f>SUMIF($AF$1:$AF$30,T3,$AG$1:$AG$30)</f>
         <v>48.032000000000004</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37">
         <f t="shared" si="2"/>
         <v>162.03200000000001</v>
@@ -3319,18 +3356,18 @@
       <c r="P7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="50">
         <f>12+102</f>
         <v>114</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="81">
+      <c r="U7" s="73">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V7" s="61" t="str">
+      <c r="V7" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3344,30 +3381,37 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93" t="s">
+      <c r="AF7" s="76" t="str">
+        <f>C10</f>
+        <v>SPD</v>
+      </c>
+      <c r="AG7" s="76">
+        <f>E10</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="37"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
-      <c r="T8" s="48" t="s">
+      <c r="P8" s="67"/>
+      <c r="Q8" s="68"/>
+      <c r="T8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="81">
+      <c r="U8" s="73">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V8" s="61" t="str">
+      <c r="V8" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3381,13 +3425,20 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF8" s="76" t="str">
+        <f>C11</f>
+        <v>atk</v>
+      </c>
+      <c r="AG8" s="76">
+        <f>E11</f>
+        <v>3.8879999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="59" t="str">
+      <c r="C9" s="55" t="str">
         <f>T19</f>
         <v>ATK_</v>
       </c>
@@ -3399,33 +3450,33 @@
       <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="82">
         <f>IF(Q9&lt;0.05,5%,Q9)</f>
         <v>0.05</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="62">
-        <f>E6+E12+E18+E24+J24+O24</f>
+      <c r="I9" s="66"/>
+      <c r="J9" s="83">
+        <f>SUMIF($AF$1:$AF$30,T13,$AG$1:$AG$30)</f>
         <v>0.69983999999999991</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="84">
         <f>J9+H9</f>
         <v>0.74983999999999995</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="52">
         <v>0.05</v>
       </c>
-      <c r="T9" s="48" t="s">
+      <c r="T9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="81">
+      <c r="U9" s="73">
         <f t="shared" si="0"/>
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="V9" s="61" t="str">
+      <c r="V9" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3439,52 +3490,59 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF9" s="76" t="str">
+        <f>C12</f>
+        <v>cr</v>
+      </c>
+      <c r="AG9" s="76">
+        <f>E12</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="61">
+      <c r="C10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="56">
         <v>1</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="74">
         <f>IF(C10=$T$3,(D10+1)*$U$3,IF(C10=$T$7,(D10+1)*$U$7,IF(C10=$T$8,(D10+1)*$U$8,IF(C10=$T$9,(D10+1)*$U$9,IF(C10=$T$10,(D10+1)*$U$10,IF(C10=$T$11,(D10+1)*$U$11,IF(C10=$T$12,(D10+1)*$U$12,IF(C10=$T$13,(D10+1)*$U$13,IF(C10=$T$14,(D10+1)*$U$14,IF(C10=$T$4,(D10+1)*$U$4,IF(C10=$T$5,(D10+1)*$U$5,IF(C10=$T$6,(D10+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="82">
         <f>IF(Q10&lt;0.5,5%,Q10)</f>
         <v>0.5</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="62">
-        <f>E7+E13+E15+E25+J25+O25</f>
+      <c r="I10" s="66"/>
+      <c r="J10" s="83">
+        <f>SUMIF($AF$1:$AF$30,T14,$AG$1:$AG$30)</f>
         <v>1.3478400000000001</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="84">
         <f>J10+H10</f>
         <v>1.8478400000000001</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="52">
         <v>0.5</v>
       </c>
-      <c r="T10" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="81">
+      <c r="T10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="73">
         <f t="shared" si="0"/>
         <v>5.8319999999999997E-2</v>
       </c>
-      <c r="V10" s="61" t="str">
+      <c r="V10" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3498,50 +3556,57 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF10" s="76" t="str">
+        <f>C13</f>
+        <v>cd</v>
+      </c>
+      <c r="AG10" s="76">
+        <f>E13</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="80">
+      <c r="D11" s="56"/>
+      <c r="E11" s="74">
         <f>IF(C11=$T$3,(D11+1)*$U$3,IF(C11=$T$7,(D11+1)*$U$7,IF(C11=$T$8,(D11+1)*$U$8,IF(C11=$T$9,(D11+1)*$U$9,IF(C11=$T$10,(D11+1)*$U$10,IF(C11=$T$11,(D11+1)*$U$11,IF(C11=$T$12,(D11+1)*$U$12,IF(C11=$T$13,(D11+1)*$U$13,IF(C11=$T$14,(D11+1)*$U$14,IF(C11=$T$4,(D11+1)*$U$4,IF(C11=$T$5,(D11+1)*$U$5,IF(C11=$T$6,(D11+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="82">
         <f>Q11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="62">
-        <f>E19+E22+O23</f>
+      <c r="I11" s="66"/>
+      <c r="J11" s="83">
+        <f>SUMIF($AF$1:$AF$30,T10,$AG$1:$AG$30)</f>
         <v>0.17496</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="84">
         <f t="shared" ref="K11" si="3">J11+H11</f>
         <v>0.17496</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="52">
         <v>0</v>
       </c>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="81">
+      <c r="U11" s="73">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V11" s="61" t="str">
+      <c r="V11" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3555,46 +3620,56 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF11" s="76" t="str">
+        <f>C15</f>
+        <v>CD</v>
+      </c>
+      <c r="AG11" s="76">
+        <f>E15</f>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="56">
         <v>3</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="74">
         <f>IF(C12=$T$3,(D12+1)*$U$3,IF(C12=$T$7,(D12+1)*$U$7,IF(C12=$T$8,(D12+1)*$U$8,IF(C12=$T$9,(D12+1)*$U$9,IF(C12=$T$10,(D12+1)*$U$10,IF(C12=$T$11,(D12+1)*$U$11,IF(C12=$T$12,(D12+1)*$U$12,IF(C12=$T$13,(D12+1)*$U$13,IF(C12=$T$14,(D12+1)*$U$14,IF(C12=$T$4,(D12+1)*$U$4,IF(C12=$T$5,(D12+1)*$U$5,IF(C12=$T$6,(D12+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="82">
         <f>Q12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="35"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="83">
+        <f>SUMIF($AF$1:$AF$30,T26,$AG$1:$AG$30)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="84"/>
       <c r="P12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="52">
         <v>0</v>
       </c>
-      <c r="T12" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" s="81">
+      <c r="T12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" s="73">
         <f t="shared" si="0"/>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="V12" s="61" t="str">
+      <c r="V12" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3608,52 +3683,59 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF12" s="76" t="str">
+        <f>C16</f>
+        <v>SPD</v>
+      </c>
+      <c r="AG12" s="76">
+        <f>E16</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="58">
         <v>1</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="74">
         <f>IF(C13=$T$3,(D13+1)*$U$3,IF(C13=$T$7,(D13+1)*$U$7,IF(C13=$T$8,(D13+1)*$U$8,IF(C13=$T$9,(D13+1)*$U$9,IF(C13=$T$10,(D13+1)*$U$10,IF(C13=$T$11,(D13+1)*$U$11,IF(C13=$T$12,(D13+1)*$U$12,IF(C13=$T$13,(D13+1)*$U$13,IF(C13=$T$14,(D13+1)*$U$14,IF(C13=$T$4,(D13+1)*$U$4,IF(C13=$T$5,(D13+1)*$U$5,IF(C13=$T$6,(D13+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="52">
+        <v>66</v>
+      </c>
+      <c r="H13" s="82">
         <f>IF(Q13&lt;1,100%,Q13)</f>
         <v>1.2</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="62">
-        <f>J21</f>
+      <c r="I13" s="66"/>
+      <c r="J13" s="83">
+        <f>SUMIF($AF$1:$AF$30,T25,$AG$1:$AG$30)</f>
         <v>0.19439400000000001</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="84">
         <f>J13+H13</f>
         <v>1.3943939999999999</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="56">
+      <c r="Q13" s="52">
         <v>1.2</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="81">
+      <c r="U13" s="73">
         <f t="shared" si="0"/>
         <v>2.9159999999999998E-2</v>
       </c>
-      <c r="V13" s="61" t="str">
+      <c r="V13" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
@@ -3667,62 +3749,79 @@
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="93" t="s">
+      <c r="AF13" s="76" t="str">
+        <f>C17</f>
+        <v>atk</v>
+      </c>
+      <c r="AG13" s="76">
+        <f>E17</f>
+        <v>3.8879999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
       <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="85">
         <f>Q14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="46">
+      <c r="I14" s="69"/>
+      <c r="J14" s="86">
+        <f>SUMIF($AF$1:$AF$30,T11,$AG$1:$AG$30)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="87">
         <f>J14+H14</f>
         <v>0</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="53">
         <v>0</v>
       </c>
-      <c r="T14" s="49" t="s">
+      <c r="T14" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="82">
+      <c r="U14" s="75">
         <f t="shared" si="0"/>
         <v>5.8319999999999997E-2</v>
       </c>
-      <c r="V14" s="65" t="str">
+      <c r="V14" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Med</v>
       </c>
       <c r="W14" s="28">
         <v>5.1839999999999997E-2</v>
       </c>
-      <c r="X14" s="71">
+      <c r="X14" s="63">
         <v>5.8319999999999997E-2</v>
       </c>
       <c r="Y14" s="26">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF14" s="76" t="str">
+        <f>C18</f>
+        <v>cr</v>
+      </c>
+      <c r="AG14" s="76">
+        <f>E18</f>
+        <v>0.14579999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="59" t="str">
+      <c r="C15" s="55" t="str">
         <f>T29</f>
         <v>CD</v>
       </c>
@@ -3732,19 +3831,26 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF15" s="76" t="str">
+        <f>C19</f>
+        <v>be</v>
+      </c>
+      <c r="AG15" s="76">
+        <f>E19</f>
+        <v>5.8319999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="56">
         <v>1</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="74">
         <f>IF(C16=$T$3,(D16+1)*$U$3,IF(C16=$T$7,(D16+1)*$U$7,IF(C16=$T$8,(D16+1)*$U$8,IF(C16=$T$9,(D16+1)*$U$9,IF(C16=$T$10,(D16+1)*$U$10,IF(C16=$T$11,(D16+1)*$U$11,IF(C16=$T$12,(D16+1)*$U$12,IF(C16=$T$13,(D16+1)*$U$13,IF(C16=$T$14,(D16+1)*$U$14,IF(C16=$T$4,(D16+1)*$U$4,IF(C16=$T$5,(D16+1)*$U$5,IF(C16=$T$6,(D16+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
@@ -3761,128 +3867,145 @@
         <v>31</v>
       </c>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AF16" s="76" t="str">
+        <f>C21</f>
+        <v>SPD</v>
+      </c>
+      <c r="AG16" s="76">
+        <f>E21</f>
+        <v>25.032</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="80">
+      <c r="D17" s="56"/>
+      <c r="E17" s="74">
         <f>IF(C17=$T$3,(D17+1)*$U$3,IF(C17=$T$7,(D17+1)*$U$7,IF(C17=$T$8,(D17+1)*$U$8,IF(C17=$T$9,(D17+1)*$U$9,IF(C17=$T$10,(D17+1)*$U$10,IF(C17=$T$11,(D17+1)*$U$11,IF(C17=$T$12,(D17+1)*$U$12,IF(C17=$T$13,(D17+1)*$U$13,IF(C17=$T$14,(D17+1)*$U$14,IF(C17=$T$4,(D17+1)*$U$4,IF(C17=$T$5,(D17+1)*$U$5,IF(C17=$T$6,(D17+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="L17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="48" t="s">
         <v>15</v>
       </c>
       <c r="U17" s="31">
         <v>25.032</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="48">
         <v>4.032</v>
       </c>
       <c r="W17" s="31">
         <v>1.4</v>
       </c>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AF17" s="76" t="str">
+        <f>C22</f>
+        <v>Be</v>
+      </c>
+      <c r="AG17" s="76">
+        <f>E22</f>
+        <v>5.8319999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="56">
         <v>4</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="74">
         <f>IF(C18=$T$3,(D18+1)*$U$3,IF(C18=$T$7,(D18+1)*$U$7,IF(C18=$T$8,(D18+1)*$U$8,IF(C18=$T$9,(D18+1)*$U$9,IF(C18=$T$10,(D18+1)*$U$10,IF(C18=$T$11,(D18+1)*$U$11,IF(C18=$T$12,(D18+1)*$U$12,IF(C18=$T$13,(D18+1)*$U$13,IF(C18=$T$14,(D18+1)*$U$14,IF(C18=$T$4,(D18+1)*$U$4,IF(C18=$T$5,(D18+1)*$U$5,IF(C18=$T$6,(D18+1)*$U$6))))))))))))</f>
         <v>0.14579999999999999</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="80">
+      <c r="U18" s="74">
         <v>705.6</v>
       </c>
       <c r="V18" s="4">
         <v>112.896</v>
       </c>
-      <c r="W18" s="80">
+      <c r="W18" s="74">
         <v>39.513599999999997</v>
       </c>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF18" s="76" t="str">
+        <f>C23</f>
+        <v>atk</v>
+      </c>
+      <c r="AG18" s="76">
+        <f>E23</f>
+        <v>3.8879999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="80">
+      <c r="C19" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="74">
         <f>IF(C19=$T$3,(D19+1)*$U$3,IF(C19=$T$7,(D19+1)*$U$7,IF(C19=$T$8,(D19+1)*$U$8,IF(C19=$T$9,(D19+1)*$U$9,IF(C19=$T$10,(D19+1)*$U$10,IF(C19=$T$11,(D19+1)*$U$11,IF(C19=$T$12,(D19+1)*$U$12,IF(C19=$T$13,(D19+1)*$U$13,IF(C19=$T$14,(D19+1)*$U$14,IF(C19=$T$4,(D19+1)*$U$4,IF(C19=$T$5,(D19+1)*$U$5,IF(C19=$T$6,(D19+1)*$U$6))))))))))))</f>
         <v>5.8319999999999997E-2</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="32"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U19" s="80">
+      <c r="U19" s="74">
         <v>352.8</v>
       </c>
       <c r="V19" s="4">
         <v>56.448</v>
       </c>
-      <c r="W19" s="80">
+      <c r="W19" s="74">
         <v>19.756799999999998</v>
       </c>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="93" t="s">
+      <c r="AF19" s="76" t="str">
+        <f>C24</f>
+        <v>cr</v>
+      </c>
+      <c r="AG19" s="76">
+        <f>E24</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="G20" s="93" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="G20" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-      <c r="L20" s="93" t="s">
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="L20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="32"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="97"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="4" t="s">
@@ -3898,12 +4021,20 @@
         <v>2.4192000000000002E-2</v>
       </c>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AF20" s="76" t="str">
+        <f>C25</f>
+        <v>cd</v>
+      </c>
+      <c r="AG20" s="76">
+        <f>E25</f>
+        <v>0.17496</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="59" t="str">
+      <c r="C21" s="55" t="str">
         <f>T17</f>
         <v>SPD</v>
       </c>
@@ -3915,7 +4046,7 @@
       <c r="G21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="59" t="str">
+      <c r="H21" s="55" t="str">
         <f>T25</f>
         <v>ERR</v>
       </c>
@@ -3927,7 +4058,7 @@
       <c r="L21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="59" t="str">
+      <c r="M21" s="55" t="str">
         <f>T21</f>
         <v>ATK</v>
       </c>
@@ -3949,42 +4080,50 @@
         <v>2.4192000000000002E-2</v>
       </c>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AF21" s="76" t="str">
+        <f>H21</f>
+        <v>ERR</v>
+      </c>
+      <c r="AG21" s="76">
+        <f>J21</f>
+        <v>0.19439400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="80">
+      <c r="C22" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="74">
         <f>IF(C22=$T$3,(D22+1)*$U$3,IF(C22=$T$7,(D22+1)*$U$7,IF(C22=$T$8,(D22+1)*$U$8,IF(C22=$T$9,(D22+1)*$U$9,IF(C22=$T$10,(D22+1)*$U$10,IF(C22=$T$11,(D22+1)*$U$11,IF(C22=$T$12,(D22+1)*$U$12,IF(C22=$T$13,(D22+1)*$U$13,IF(C22=$T$14,(D22+1)*$U$14,IF(C22=$T$4,(D22+1)*$U$4,IF(C22=$T$5,(D22+1)*$U$5,IF(C22=$T$6,(D22+1)*$U$6))))))))))))</f>
         <v>5.8319999999999997E-2</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="56">
         <v>1</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="74">
         <f>IF(H22=$T$3,(I22+1)*$U$3,IF(H22=$T$7,(I22+1)*$U$7,IF(H22=$T$8,(I22+1)*$U$8,IF(H22=$T$9,(I22+1)*$U$9,IF(H22=$T$10,(I22+1)*$U$10,IF(H22=$T$11,(I22+1)*$U$11,IF(H22=$T$12,(I22+1)*$U$12,IF(H22=$T$13,(I22+1)*$U$13,IF(H22=$T$14,(I22+1)*$U$14,IF(H22=$T$4,(I22+1)*$U$4,IF(H22=$T$5,(I22+1)*$U$5,IF(H22=$T$6,(I22+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="56">
         <v>1</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="74">
         <f>IF(M22=$T$3,(N22+1)*$U$3,IF(M22=$T$7,(N22+1)*$U$7,IF(M22=$T$8,(N22+1)*$U$8,IF(M22=$T$9,(N22+1)*$U$9,IF(M22=$T$10,(N22+1)*$U$10,IF(M22=$T$11,(N22+1)*$U$11,IF(M22=$T$12,(N22+1)*$U$12,IF(M22=$T$13,(N22+1)*$U$13,IF(M22=$T$14,(N22+1)*$U$14,IF(M22=$T$4,(N22+1)*$U$4,IF(M22=$T$5,(N22+1)*$U$5,IF(M22=$T$6,(N22+1)*$U$6))))))))))))</f>
         <v>4.5999999999999996</v>
       </c>
@@ -4001,43 +4140,51 @@
         <v>3.024E-2</v>
       </c>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AF22" s="76" t="str">
+        <f>H22</f>
+        <v>spd</v>
+      </c>
+      <c r="AG22" s="76">
+        <f>J22</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="80">
+      <c r="D23" s="56"/>
+      <c r="E23" s="74">
         <f>IF(C23=$T$3,(D23+1)*$U$3,IF(C23=$T$7,(D23+1)*$U$7,IF(C23=$T$8,(D23+1)*$U$8,IF(C23=$T$9,(D23+1)*$U$9,IF(C23=$T$10,(D23+1)*$U$10,IF(C23=$T$11,(D23+1)*$U$11,IF(C23=$T$12,(D23+1)*$U$12,IF(C23=$T$13,(D23+1)*$U$13,IF(C23=$T$14,(D23+1)*$U$14,IF(C23=$T$4,(D23+1)*$U$4,IF(C23=$T$5,(D23+1)*$U$5,IF(C23=$T$6,(D23+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="80">
+      <c r="I23" s="56"/>
+      <c r="J23" s="74">
         <f>IF(H23=$T$3,(I23+1)*$U$3,IF(H23=$T$7,(I23+1)*$U$7,IF(H23=$T$8,(I23+1)*$U$8,IF(H23=$T$9,(I23+1)*$U$9,IF(H23=$T$10,(I23+1)*$U$10,IF(H23=$T$11,(I23+1)*$U$11,IF(H23=$T$12,(I23+1)*$U$12,IF(H23=$T$13,(I23+1)*$U$13,IF(H23=$T$14,(I23+1)*$U$14,IF(H23=$T$4,(I23+1)*$U$4,IF(H23=$T$5,(I23+1)*$U$5,IF(H23=$T$6,(I23+1)*$U$6))))))))))))</f>
         <v>3.8879999999999998E-2</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="80">
+      <c r="M23" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="56"/>
+      <c r="O23" s="74">
         <f>IF(M23=$T$3,(N23+1)*$U$3,IF(M23=$T$7,(N23+1)*$U$7,IF(M23=$T$8,(N23+1)*$U$8,IF(M23=$T$9,(N23+1)*$U$9,IF(M23=$T$10,(N23+1)*$U$10,IF(M23=$T$11,(N23+1)*$U$11,IF(M23=$T$12,(N23+1)*$U$12,IF(M23=$T$13,(N23+1)*$U$13,IF(M23=$T$14,(N23+1)*$U$14,IF(M23=$T$4,(N23+1)*$U$4,IF(M23=$T$5,(N23+1)*$U$5,IF(M23=$T$6,(N23+1)*$U$6))))))))))))</f>
         <v>5.8319999999999997E-2</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U23" s="24">
         <v>0.64800000000000002</v>
@@ -4048,48 +4195,56 @@
       <c r="W23" s="24">
         <v>3.6276999999999997E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF23" s="76" t="str">
+        <f>H23</f>
+        <v>atk</v>
+      </c>
+      <c r="AG23" s="76">
+        <f>J23</f>
+        <v>3.8879999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="56">
         <v>3</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="74">
         <f>IF(C24=$T$3,(D24+1)*$U$3,IF(C24=$T$7,(D24+1)*$U$7,IF(C24=$T$8,(D24+1)*$U$8,IF(C24=$T$9,(D24+1)*$U$9,IF(C24=$T$10,(D24+1)*$U$10,IF(C24=$T$11,(D24+1)*$U$11,IF(C24=$T$12,(D24+1)*$U$12,IF(C24=$T$13,(D24+1)*$U$13,IF(C24=$T$14,(D24+1)*$U$14,IF(C24=$T$4,(D24+1)*$U$4,IF(C24=$T$5,(D24+1)*$U$5,IF(C24=$T$6,(D24+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="56">
         <v>2</v>
       </c>
-      <c r="J24" s="80">
+      <c r="J24" s="74">
         <f>IF(H24=$T$3,(I24+1)*$U$3,IF(H24=$T$7,(I24+1)*$U$7,IF(H24=$T$8,(I24+1)*$U$8,IF(H24=$T$9,(I24+1)*$U$9,IF(H24=$T$10,(I24+1)*$U$10,IF(H24=$T$11,(I24+1)*$U$11,IF(H24=$T$12,(I24+1)*$U$12,IF(H24=$T$13,(I24+1)*$U$13,IF(H24=$T$14,(I24+1)*$U$14,IF(H24=$T$4,(I24+1)*$U$4,IF(H24=$T$5,(I24+1)*$U$5,IF(H24=$T$6,(I24+1)*$U$6))))))))))))</f>
         <v>8.7480000000000002E-2</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="58" t="s">
+      <c r="M24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="61">
+      <c r="N24" s="56">
         <v>3</v>
       </c>
-      <c r="O24" s="80">
+      <c r="O24" s="74">
         <f>IF(M24=$T$3,(N24+1)*$U$3,IF(M24=$T$7,(N24+1)*$U$7,IF(M24=$T$8,(N24+1)*$U$8,IF(M24=$T$9,(N24+1)*$U$9,IF(M24=$T$10,(N24+1)*$U$10,IF(M24=$T$11,(N24+1)*$U$11,IF(M24=$T$12,(N24+1)*$U$12,IF(M24=$T$13,(N24+1)*$U$13,IF(M24=$T$14,(N24+1)*$U$14,IF(M24=$T$4,(N24+1)*$U$4,IF(M24=$T$5,(N24+1)*$U$5,IF(M24=$T$6,(N24+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="U24" s="24">
@@ -4101,49 +4256,57 @@
       <c r="W24" s="24">
         <v>2.4192000000000002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF24" s="76" t="str">
+        <f>H24</f>
+        <v>cr</v>
+      </c>
+      <c r="AG24" s="76">
+        <f>J24</f>
+        <v>8.7480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="58">
         <v>2</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="74">
         <f>IF(C25=$T$3,(D25+1)*$U$3,IF(C25=$T$7,(D25+1)*$U$7,IF(C25=$T$8,(D25+1)*$U$8,IF(C25=$T$9,(D25+1)*$U$9,IF(C25=$T$10,(D25+1)*$U$10,IF(C25=$T$11,(D25+1)*$U$11,IF(C25=$T$12,(D25+1)*$U$12,IF(C25=$T$13,(D25+1)*$U$13,IF(C25=$T$14,(D25+1)*$U$14,IF(C25=$T$4,(D25+1)*$U$4,IF(C25=$T$5,(D25+1)*$U$5,IF(C25=$T$6,(D25+1)*$U$6))))))))))))</f>
         <v>0.17496</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="58">
         <v>2</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="74">
         <f>IF(H25=$T$3,(I25+1)*$U$3,IF(H25=$T$7,(I25+1)*$U$7,IF(H25=$T$8,(I25+1)*$U$8,IF(H25=$T$9,(I25+1)*$U$9,IF(H25=$T$10,(I25+1)*$U$10,IF(H25=$T$11,(I25+1)*$U$11,IF(H25=$T$12,(I25+1)*$U$12,IF(H25=$T$13,(I25+1)*$U$13,IF(H25=$T$14,(I25+1)*$U$14,IF(H25=$T$4,(I25+1)*$U$4,IF(H25=$T$5,(I25+1)*$U$5,IF(H25=$T$6,(I25+1)*$U$6))))))))))))</f>
         <v>0.17496</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="63" t="s">
+      <c r="M25" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="65">
+      <c r="N25" s="58">
         <v>1</v>
       </c>
-      <c r="O25" s="80">
+      <c r="O25" s="74">
         <f>IF(M25=$T$3,(N25+1)*$U$3,IF(M25=$T$7,(N25+1)*$U$7,IF(M25=$T$8,(N25+1)*$U$8,IF(M25=$T$9,(N25+1)*$U$9,IF(M25=$T$10,(N25+1)*$U$10,IF(M25=$T$11,(N25+1)*$U$11,IF(M25=$T$12,(N25+1)*$U$12,IF(M25=$T$13,(N25+1)*$U$13,IF(M25=$T$14,(N25+1)*$U$14,IF(M25=$T$4,(N25+1)*$U$4,IF(M25=$T$5,(N25+1)*$U$5,IF(M25=$T$6,(N25+1)*$U$6))))))))))))</f>
         <v>0.11663999999999999</v>
       </c>
-      <c r="T25" s="4" t="s">
-        <v>69</v>
+      <c r="T25" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="U25" s="24">
         <v>0.19439400000000001</v>
@@ -4154,8 +4317,16 @@
       <c r="W25" s="24">
         <v>1.0886E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF25" s="76" t="str">
+        <f>H25</f>
+        <v>cd</v>
+      </c>
+      <c r="AG25" s="76">
+        <f>J25</f>
+        <v>0.17496</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="T26" s="4" t="s">
         <v>58</v>
       </c>
@@ -4168,16 +4339,18 @@
       <c r="W26" s="24">
         <v>1.9354E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
+      <c r="AF26" s="76" t="str">
+        <f>M21</f>
+        <v>ATK</v>
+      </c>
+      <c r="AG26" s="76">
+        <f>O21</f>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U27" s="24">
         <v>0.38880300000000001</v>
@@ -4188,16 +4361,22 @@
       <c r="W27" s="24">
         <v>2.1773000000000001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
+      <c r="AF27" s="76" t="str">
+        <f>M22</f>
+        <v>spd</v>
+      </c>
+      <c r="AG27" s="76">
+        <f>O22</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B28" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
       <c r="T28" s="4" t="s">
         <v>45</v>
       </c>
@@ -4210,16 +4389,24 @@
       <c r="W28" s="24">
         <v>1.8144E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF28" s="76" t="str">
+        <f>M23</f>
+        <v>be</v>
+      </c>
+      <c r="AG28" s="76">
+        <f>O23</f>
+        <v>5.8319999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
+        <v>9</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
       <c r="T29" s="6" t="s">
         <v>44</v>
       </c>
@@ -4232,134 +4419,160 @@
       <c r="W29" s="26">
         <v>3.6288000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AF29" s="76" t="str">
+        <f>M24</f>
+        <v>cr</v>
+      </c>
+      <c r="AG29" s="76">
+        <f>O24</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="AF30" s="76" t="str">
+        <f>M25</f>
+        <v>cd</v>
+      </c>
+      <c r="AG30" s="76">
+        <f>O25</f>
+        <v>0.11663999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C31" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
+        <v>62</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
+        <v>26</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
+        <v>66</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="98"/>
+      <c r="E35" s="99"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
+        <v>67</v>
+      </c>
+      <c r="C36" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
+        <v>58</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C39" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="6" t="s">
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C40" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C7 C10:C13 C16:C19 C22:C25 H22:H25 M22:M25" xr:uid="{E750D7EE-99B4-4A54-BC8C-1029105D1884}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C7 C10:C13 C16:C19 C22:C25 H22:H25 M22:M25" xr:uid="{34F42C2C-206E-41BF-A2F0-7C3BCEF6BF35}">
       <formula1>$T$3:$T$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -4383,12 +4596,12 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
@@ -4751,12 +4964,12 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
@@ -5082,18 +5295,18 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="G14" s="93" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="G14" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="97"/>
       <c r="M14" s="8" t="s">
         <v>44</v>
       </c>
@@ -5311,18 +5524,18 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="G20" s="93" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="G20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
